--- a/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>39633</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31491</v>
+        <v>31186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49074</v>
+        <v>49573</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1380217334938585</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1096665488938567</v>
+        <v>0.1086034086132695</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1709005667121835</v>
+        <v>0.1726356948784717</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>157</v>
@@ -762,19 +762,19 @@
         <v>82740</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70775</v>
+        <v>71219</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96496</v>
+        <v>97262</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1537528421901294</v>
+        <v>0.1537528421901293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1315191726281136</v>
+        <v>0.1323434958013875</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.179315808062467</v>
+        <v>0.1807387935788263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>226</v>
@@ -783,19 +783,19 @@
         <v>122373</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107952</v>
+        <v>107660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140798</v>
+        <v>138634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.148279326658154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1308054803908753</v>
+        <v>0.1304514174798972</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1706048896376195</v>
+        <v>0.1679832058299544</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>32882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25304</v>
+        <v>24452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43553</v>
+        <v>41790</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1145109071383214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08811999490977936</v>
+        <v>0.08515451713884764</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1516707625309094</v>
+        <v>0.1455314020757841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>138</v>
@@ -833,19 +833,19 @@
         <v>70114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58694</v>
+        <v>59636</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81694</v>
+        <v>81921</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1302902624948565</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1090693420158124</v>
+        <v>0.1108193912759888</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1518089685013306</v>
+        <v>0.1522318292532078</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>187</v>
@@ -854,19 +854,19 @@
         <v>102996</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>88959</v>
+        <v>88860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>117950</v>
+        <v>117897</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1247999599169443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1077914790167783</v>
+        <v>0.1076712182149342</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1429199747703712</v>
+        <v>0.1428556345510482</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>214637</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>202162</v>
+        <v>202508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>226074</v>
+        <v>226197</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7474673593678199</v>
+        <v>0.7474673593678201</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7040256386544438</v>
+        <v>0.7052278141302233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7872962844827887</v>
+        <v>0.7877273774928898</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>723</v>
@@ -904,19 +904,19 @@
         <v>385281</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>368329</v>
+        <v>369264</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>400228</v>
+        <v>400266</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7159568953150139</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6844554663942426</v>
+        <v>0.686191447026048</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7437306636647885</v>
+        <v>0.7438021168811183</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1029</v>
@@ -925,19 +925,19 @@
         <v>599918</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>579974</v>
+        <v>579490</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>618603</v>
+        <v>619261</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7269207134249016</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7027538240591644</v>
+        <v>0.7021681904556806</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7495612345269713</v>
+        <v>0.7503578331119767</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>10507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6344</v>
+        <v>6059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16700</v>
+        <v>17029</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03458150239510668</v>
+        <v>0.03458150239510669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02088109085285155</v>
+        <v>0.01994179129542426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05496559042290558</v>
+        <v>0.05604828870528043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1050,19 +1050,19 @@
         <v>10024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6143</v>
+        <v>6209</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15790</v>
+        <v>15998</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03610357532301716</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02212495293809595</v>
+        <v>0.02236447683371879</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05687134311740201</v>
+        <v>0.05762089563032413</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -1071,19 +1071,19 @@
         <v>20531</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14249</v>
+        <v>14093</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28775</v>
+        <v>27559</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03530827499058536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02450489051922362</v>
+        <v>0.02423721753729191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04948731843073724</v>
+        <v>0.04739574913298087</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>17827</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12428</v>
+        <v>12164</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26716</v>
+        <v>25238</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05867578121863286</v>
+        <v>0.05867578121863287</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04090508803368915</v>
+        <v>0.04003781901787464</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08793335230597524</v>
+        <v>0.08306855824824209</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -1121,19 +1121,19 @@
         <v>21246</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15027</v>
+        <v>14851</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29170</v>
+        <v>28481</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.07652284868700737</v>
+        <v>0.07652284868700739</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05412209702007063</v>
+        <v>0.05349077002328018</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1050629775799651</v>
+        <v>0.102582055687996</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>66</v>
@@ -1142,19 +1142,19 @@
         <v>39073</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30915</v>
+        <v>29908</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49849</v>
+        <v>48719</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0671975539325593</v>
+        <v>0.06719755393255931</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05316683253751009</v>
+        <v>0.05143440366137569</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08572941204601556</v>
+        <v>0.08378619157710825</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>275491</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>265069</v>
+        <v>267496</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>282335</v>
+        <v>283634</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9067427163862603</v>
+        <v>0.9067427163862604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8724389451123387</v>
+        <v>0.8804290899133985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9292696482468875</v>
+        <v>0.9335437462502711</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>471</v>
@@ -1192,19 +1192,19 @@
         <v>246376</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>237264</v>
+        <v>237247</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>253491</v>
+        <v>253574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8873735759899753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8545570910144338</v>
+        <v>0.85449319380231</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9130015379199053</v>
+        <v>0.9132999948261238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>854</v>
@@ -1213,19 +1213,19 @@
         <v>521867</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>509039</v>
+        <v>510702</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>532162</v>
+        <v>533895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8974941710768554</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8754330285369253</v>
+        <v>0.8782923180496088</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9151987918664528</v>
+        <v>0.9181802315672563</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>2561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6620</v>
+        <v>6691</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0216466648417214</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005635737235757068</v>
+        <v>0.005570250268415199</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05596512080799214</v>
+        <v>0.0565647299717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3034</v>
+        <v>3682</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008234083741978681</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03662280541453989</v>
+        <v>0.04444505497850561</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1359,19 +1359,19 @@
         <v>3243</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1268</v>
+        <v>1114</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7236</v>
+        <v>7165</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01612183840286909</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006302167677607716</v>
+        <v>0.005539314677549287</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03597597093732745</v>
+        <v>0.03561864039389602</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>3188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1042</v>
+        <v>858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8943</v>
+        <v>9110</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02694631292091964</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008809760563244824</v>
+        <v>0.007251224775322868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07560096808598139</v>
+        <v>0.07701413780105189</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1409,19 +1409,19 @@
         <v>6880</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3531</v>
+        <v>3830</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11196</v>
+        <v>11816</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08304147024747977</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04262077670235136</v>
+        <v>0.04622892367660796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1351246921701751</v>
+        <v>0.1426066547964995</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1430,19 +1430,19 @@
         <v>10068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6029</v>
+        <v>5652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15872</v>
+        <v>16265</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05005267895029665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02997428019097584</v>
+        <v>0.02809694112811582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0789054199723612</v>
+        <v>0.08086137753703398</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>112544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106921</v>
+        <v>106781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115721</v>
+        <v>115893</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9514070222373588</v>
+        <v>0.951407022237359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9038699283265609</v>
+        <v>0.9026877313326258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9782658573416873</v>
+        <v>0.9797181071998525</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>139</v>
@@ -1480,19 +1480,19 @@
         <v>75292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70678</v>
+        <v>70408</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78556</v>
+        <v>78518</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9087244460105415</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8530271161058447</v>
+        <v>0.8497775537371921</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9481181273058967</v>
+        <v>0.9476597880582808</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>298</v>
@@ -1501,19 +1501,19 @@
         <v>187836</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>181685</v>
+        <v>181169</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>192697</v>
+        <v>192745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9338254826468343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.903243543363097</v>
+        <v>0.9006795358114197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9579898668259357</v>
+        <v>0.9582302547231973</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>52701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42295</v>
+        <v>43005</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64778</v>
+        <v>65068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07430268036725061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05963251122920949</v>
+        <v>0.06063299525694225</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09133033053929374</v>
+        <v>0.09173985805732915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -1626,19 +1626,19 @@
         <v>93446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80454</v>
+        <v>78955</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110298</v>
+        <v>106063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1039865193970665</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08952936883495534</v>
+        <v>0.08786142479961682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1227390832083771</v>
+        <v>0.1180264834284702</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -1647,19 +1647,19 @@
         <v>146147</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>129006</v>
+        <v>129694</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>165067</v>
+        <v>164143</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09089256888957389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08023264913773112</v>
+        <v>0.08065999404931019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.102659693898738</v>
+        <v>0.1020851813299871</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>53897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42809</v>
+        <v>43242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>66405</v>
+        <v>65949</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07598915921206587</v>
+        <v>0.07598915921206588</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06035644202261686</v>
+        <v>0.06096698602040418</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09362443216621272</v>
+        <v>0.09298096096504975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>189</v>
@@ -1697,19 +1697,19 @@
         <v>98240</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85469</v>
+        <v>84238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111526</v>
+        <v>113558</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1093217009965012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09510991986456979</v>
+        <v>0.09373983382231436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1241063357038616</v>
+        <v>0.1263674736337103</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>269</v>
@@ -1718,19 +1718,19 @@
         <v>152137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>133825</v>
+        <v>134883</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>170427</v>
+        <v>170985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09461825741644643</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0832296788165439</v>
+        <v>0.0838874803498585</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1059934422716732</v>
+        <v>0.1063405323108384</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>602672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>584910</v>
+        <v>586320</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>616744</v>
+        <v>617408</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8497081604206835</v>
+        <v>0.8497081604206834</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.824665809699224</v>
+        <v>0.8266542620589102</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8695490917357445</v>
+        <v>0.8704850850871161</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1333</v>
@@ -1768,19 +1768,19 @@
         <v>706950</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>687638</v>
+        <v>686807</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>723070</v>
+        <v>725494</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7866917796064324</v>
+        <v>0.7866917796064322</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7652018439087049</v>
+        <v>0.7642769504888783</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8046301866555136</v>
+        <v>0.8073278039921143</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2181</v>
@@ -1789,19 +1789,19 @@
         <v>1309621</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1285118</v>
+        <v>1284100</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1334385</v>
+        <v>1332604</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8144891736939797</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7992497537412708</v>
+        <v>0.7986167174945276</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8298904294604444</v>
+        <v>0.8287830869519625</v>
       </c>
     </row>
     <row r="19">
